--- a/firefoxextension/Template.xlsx
+++ b/firefoxextension/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\PycharmProjects\sheetuploadextension\firefoxextension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD39AB6-96EB-48FA-9471-3BAF489A35B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2FC09-6C3F-4CFD-9772-BF8113246EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1695" windowWidth="28755" windowHeight="13500" activeTab="3" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11319" uniqueCount="5495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11369" uniqueCount="5505">
   <si>
     <t>13/2021</t>
   </si>
@@ -16520,6 +16520,36 @@
   </si>
   <si>
     <t>Codigo HTML</t>
+  </si>
+  <si>
+    <t>vacina_profissionalAplicador_nome</t>
+  </si>
+  <si>
+    <t>vacina_profissionalAplicador</t>
+  </si>
+  <si>
+    <t>paciente_endereco_bairro</t>
+  </si>
+  <si>
+    <t>paciente_nome</t>
+  </si>
+  <si>
+    <t>paciente_nome_mae</t>
+  </si>
+  <si>
+    <t>paciente_email</t>
+  </si>
+  <si>
+    <t>paciente_cpf</t>
+  </si>
+  <si>
+    <t>paciente_cns</t>
+  </si>
+  <si>
+    <t>paciente_telefone</t>
+  </si>
+  <si>
+    <t>Campo Identificado</t>
   </si>
 </sst>
 </file>
@@ -16529,7 +16559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16556,6 +16586,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -16599,7 +16635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16620,6 +16656,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80183,386 +80222,952 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D60D922-4C09-44AF-9A6B-383A8DAE0C8E}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:BS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="20" max="20" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5493</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5494</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>5453</v>
+    <row r="2" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>5476</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("&lt;option value='",A2,"'&gt;",A2,"&lt;/option&gt;")</f>
-        <v>&lt;option value='estabelecimento_municipio_nome'&gt;estabelecimento_municipio_nome&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>5454</v>
+        <v>&lt;option value='@timestamp'&gt;@timestamp&lt;/option&gt;</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>5476</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("&lt;option value='",F2,"'&gt;",F2,"&lt;/option&gt;")</f>
+        <v>&lt;option value='@timestamp'&gt;@timestamp&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>5489</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B41" si="0">CONCATENATE("&lt;option value='",A3,"'&gt;",A3,"&lt;/option&gt;")</f>
-        <v>&lt;option value='data_importacao_rnds'&gt;data_importacao_rnds&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>5455</v>
+        <f t="shared" ref="B3:B50" si="0">CONCATENATE("&lt;option value='",A3,"'&gt;",A3,"&lt;/option&gt;")</f>
+        <v>&lt;option value='@version'&gt;@version&lt;/option&gt;</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>5489</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G41" si="1">CONCATENATE("&lt;option value='",F3,"'&gt;",F3,"&lt;/option&gt;")</f>
+        <v>&lt;option value='@version'&gt;@version&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>5465</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_dataAplicacao'&gt;vacina_dataAplicacao&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>5456</v>
+        <v>&lt;option value='data_importacao_datalake'&gt;data_importacao_datalake&lt;/option&gt;</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>5465</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='data_importacao_datalake'&gt;data_importacao_datalake&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>5454</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='document_id'&gt;document_id&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5457</v>
+        <v>&lt;option value='data_importacao_rnds'&gt;data_importacao_rnds&lt;/option&gt;</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>5454</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='data_importacao_rnds'&gt;data_importacao_rnds&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5456</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_racaCor_valor'&gt;paciente_racaCor_valor&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>5458</v>
+        <v>&lt;option value='document_id'&gt;document_id&lt;/option&gt;</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8" t="s">
+        <v>5456</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='document_id'&gt;document_id&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>5460</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='estabelecimento_razaoSocial'&gt;estabelecimento_razaoSocial&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>5459</v>
+        <v>&lt;option value='dt_deleted'&gt;dt_deleted&lt;/option&gt;</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>5460</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='dt_deleted'&gt;dt_deleted&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5464</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_descricao_dose'&gt;vacina_descricao_dose&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>5460</v>
+        <v>&lt;option value='estabelecimento_municipio_codigo'&gt;estabelecimento_municipio_codigo&lt;/option&gt;</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estabelecimento_municipio_codigo'&gt;estabelecimento_municipio_codigo&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>5453</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='dt_deleted'&gt;dt_deleted&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>5461</v>
+        <v>&lt;option value='estabelecimento_municipio_nome'&gt;estabelecimento_municipio_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>5453</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estabelecimento_municipio_nome'&gt;estabelecimento_municipio_nome&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>5458</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_uf'&gt;paciente_endereco_uf&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>5462</v>
+        <v>&lt;option value='estabelecimento_razaoSocial'&gt;estabelecimento_razaoSocial&lt;/option&gt;</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8" t="s">
+        <v>5458</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estabelecimento_razaoSocial'&gt;estabelecimento_razaoSocial&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>5477</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_codigo'&gt;vacina_codigo&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>5463</v>
+        <v>&lt;option value='estabelecimento_uf'&gt;estabelecimento_uf&lt;/option&gt;</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8" t="s">
+        <v>5477</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estabelecimento_uf'&gt;estabelecimento_uf&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>5467</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_numDose'&gt;vacina_numDose&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>5464</v>
+        <v>&lt;option value='estabelecimento_valor'&gt;estabelecimento_valor&lt;/option&gt;</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8" t="s">
+        <v>5467</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estabelecimento_valor'&gt;estabelecimento_valor&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>5475</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='estabelecimento_municipio_codigo'&gt;estabelecimento_municipio_codigo&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>5465</v>
+        <v>&lt;option value='estalecimento_noFantasia'&gt;estalecimento_noFantasia&lt;/option&gt;</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8" t="s">
+        <v>5475</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='estalecimento_noFantasia'&gt;estalecimento_noFantasia&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>5472</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='data_importacao_datalake'&gt;data_importacao_datalake&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>5466</v>
+        <v>&lt;option value='id_sistema_origem'&gt;id_sistema_origem&lt;/option&gt;</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8" t="s">
+        <v>5472</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='id_sistema_origem'&gt;id_sistema_origem&lt;/option&gt;</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
+    </row>
+    <row r="15" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>5502</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_nome'&gt;vacina_nome&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>5467</v>
+        <v>&lt;option value='paciente_cns'&gt;paciente_cns&lt;/option&gt;</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8" t="s">
+        <v>5469</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_dataNascimento'&gt;paciente_dataNascimento&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5501</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='estabelecimento_valor'&gt;estabelecimento_valor&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>5468</v>
+        <v>&lt;option value='paciente_cpf'&gt;paciente_cpf&lt;/option&gt;</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>5487</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_cep'&gt;paciente_endereco_cep&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>5469</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_nmMunicipio'&gt;paciente_endereco_nmMunicipio&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>5469</v>
+        <v>&lt;option value='paciente_dataNascimento'&gt;paciente_dataNascimento&lt;/option&gt;</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
+        <v>5470</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_coIbgeMunicipio'&gt;paciente_endereco_coIbgeMunicipio&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>5500</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_dataNascimento'&gt;paciente_dataNascimento&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>5470</v>
+        <v>&lt;option value='paciente_email'&gt;paciente_email&lt;/option&gt;</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>5491</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_coPais'&gt;paciente_endereco_coPais&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>5497</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_coIbgeMunicipio'&gt;paciente_endereco_coIbgeMunicipio&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>5471</v>
+        <v>&lt;option value='paciente_endereco_bairro'&gt;paciente_endereco_bairro&lt;/option&gt;</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>5468</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_nmMunicipio'&gt;paciente_endereco_nmMunicipio&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>5487</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_categoria_codigo'&gt;vacina_categoria_codigo&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>5472</v>
+        <v>&lt;option value='paciente_endereco_cep'&gt;paciente_endereco_cep&lt;/option&gt;</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>5485</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_nmPais'&gt;paciente_endereco_nmPais&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>5470</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='id_sistema_origem'&gt;id_sistema_origem&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>5473</v>
+        <v>&lt;option value='paciente_endereco_coIbgeMunicipio'&gt;paciente_endereco_coIbgeMunicipio&lt;/option&gt;</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8" t="s">
+        <v>5461</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_endereco_uf'&gt;paciente_endereco_uf&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>5491</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_idade'&gt;paciente_idade&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>5474</v>
+        <v>&lt;option value='paciente_endereco_coPais'&gt;paciente_endereco_coPais&lt;/option&gt;</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>5492</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_enumSexoBiologico'&gt;paciente_enumSexoBiologico&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>5468</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_nacionalidade_enumNacionalidade'&gt;paciente_nacionalidade_enumNacionalidade&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>5475</v>
+        <v>&lt;option value='paciente_endereco_nmMunicipio'&gt;paciente_endereco_nmMunicipio&lt;/option&gt;</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8" t="s">
+        <v>5479</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_id'&gt;paciente_id&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>5485</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='estalecimento_noFantasia'&gt;estalecimento_noFantasia&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>5476</v>
+        <v>&lt;option value='paciente_endereco_nmPais'&gt;paciente_endereco_nmPais&lt;/option&gt;</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8" t="s">
+        <v>5473</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_idade'&gt;paciente_idade&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>5461</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='@timestamp'&gt;@timestamp&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>5477</v>
+        <v>&lt;option value='paciente_endereco_uf'&gt;paciente_endereco_uf&lt;/option&gt;</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8" t="s">
+        <v>5474</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_nacionalidade_enumNacionalidade'&gt;paciente_nacionalidade_enumNacionalidade&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>5492</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='estabelecimento_uf'&gt;estabelecimento_uf&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>5478</v>
+        <v>&lt;option value='paciente_enumSexoBiologico'&gt;paciente_enumSexoBiologico&lt;/option&gt;</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8" t="s">
+        <v>5482</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_racaCor_codigo'&gt;paciente_racaCor_codigo&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>5479</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_fabricante_nome'&gt;vacina_fabricante_nome&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>5479</v>
+        <v>&lt;option value='paciente_id'&gt;paciente_id&lt;/option&gt;</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8" t="s">
+        <v>5457</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='paciente_racaCor_valor'&gt;paciente_racaCor_valor&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>5473</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_id'&gt;paciente_id&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>5480</v>
+        <v>&lt;option value='paciente_idade'&gt;paciente_idade&lt;/option&gt;</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>5488</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='sistema_origem'&gt;sistema_origem&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>5474</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_fabricante_referencia'&gt;vacina_fabricante_referencia&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+        <v>&lt;option value='paciente_nacionalidade_enumNacionalidade'&gt;paciente_nacionalidade_enumNacionalidade&lt;/option&gt;</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8" t="s">
         <v>5481</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='status'&gt;status&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>5498</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='status'&gt;status&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>5482</v>
+        <v>&lt;option value='paciente_nome'&gt;paciente_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8" t="s">
+        <v>5471</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_categoria_codigo'&gt;vacina_categoria_codigo&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>5499</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_racaCor_codigo'&gt;paciente_racaCor_codigo&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>5483</v>
+        <v>&lt;option value='paciente_nome_mae'&gt;paciente_nome_mae&lt;/option&gt;</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8" t="s">
+        <v>5484</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_categoria_nome'&gt;vacina_categoria_nome&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>5482</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_grupoAtendimento_nome'&gt;vacina_grupoAtendimento_nome&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>5484</v>
+        <v>&lt;option value='paciente_racaCor_codigo'&gt;paciente_racaCor_codigo&lt;/option&gt;</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8" t="s">
+        <v>5462</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_codigo'&gt;vacina_codigo&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>5457</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_categoria_nome'&gt;vacina_categoria_nome&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>5485</v>
+        <v>&lt;option value='paciente_racaCor_valor'&gt;paciente_racaCor_valor&lt;/option&gt;</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8" t="s">
+        <v>5455</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_dataAplicacao'&gt;vacina_dataAplicacao&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5503</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_nmPais'&gt;paciente_endereco_nmPais&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>5486</v>
+        <v>&lt;option value='paciente_telefone'&gt;paciente_telefone&lt;/option&gt;</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8" t="s">
+        <v>5459</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_descricao_dose'&gt;vacina_descricao_dose&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>5488</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_lote'&gt;vacina_lote&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>5487</v>
+        <v>&lt;option value='sistema_origem'&gt;sistema_origem&lt;/option&gt;</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8" t="s">
+        <v>5478</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_fabricante_nome'&gt;vacina_fabricante_nome&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>5481</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_cep'&gt;paciente_endereco_cep&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>5488</v>
+        <v>&lt;option value='status'&gt;status&lt;/option&gt;</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8" t="s">
+        <v>5480</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_fabricante_referencia'&gt;vacina_fabricante_referencia&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>5471</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='sistema_origem'&gt;sistema_origem&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>5489</v>
+        <v>&lt;option value='vacina_categoria_codigo'&gt;vacina_categoria_codigo&lt;/option&gt;</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8" t="s">
+        <v>5490</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_grupoAtendimento_codigo'&gt;vacina_grupoAtendimento_codigo&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>5484</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='@version'&gt;@version&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>5490</v>
+        <v>&lt;option value='vacina_categoria_nome'&gt;vacina_categoria_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8" t="s">
+        <v>5483</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_grupoAtendimento_nome'&gt;vacina_grupoAtendimento_nome&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>5462</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='vacina_grupoAtendimento_codigo'&gt;vacina_grupoAtendimento_codigo&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>5491</v>
+        <v>&lt;option value='vacina_codigo'&gt;vacina_codigo&lt;/option&gt;</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8" t="s">
+        <v>5486</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_lote'&gt;vacina_lote&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>5455</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_endereco_coPais'&gt;paciente_endereco_coPais&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>5492</v>
+        <v>&lt;option value='vacina_dataAplicacao'&gt;vacina_dataAplicacao&lt;/option&gt;</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8" t="s">
+        <v>5466</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_nome'&gt;vacina_nome&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>5459</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='paciente_enumSexoBiologico'&gt;paciente_enumSexoBiologico&lt;/option&gt;</v>
-      </c>
+        <v>&lt;option value='vacina_descricao_dose'&gt;vacina_descricao_dose&lt;/option&gt;</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8" t="s">
+        <v>5463</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value='vacina_numDose'&gt;vacina_numDose&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_fabricante_nome'&gt;vacina_fabricante_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>5480</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_fabricante_referencia'&gt;vacina_fabricante_referencia&lt;/option&gt;</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>5490</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_grupoAtendimento_codigo'&gt;vacina_grupoAtendimento_codigo&lt;/option&gt;</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>5483</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_grupoAtendimento_nome'&gt;vacina_grupoAtendimento_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>5486</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_lote'&gt;vacina_lote&lt;/option&gt;</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>5466</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_nome'&gt;vacina_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>5463</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_numDose'&gt;vacina_numDose&lt;/option&gt;</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>5496</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_profissionalAplicador'&gt;vacina_profissionalAplicador&lt;/option&gt;</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>5495</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='vacina_profissionalAplicador_nome'&gt;vacina_profissionalAplicador_nome&lt;/option&gt;</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F41">
+    <sortCondition ref="F2:F41"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/firefoxextension/Template.xlsx
+++ b/firefoxextension/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\PycharmProjects\sheetuploadextension\firefoxextension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2FC09-6C3F-4CFD-9772-BF8113246EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF3C86F-2D29-4FA3-923E-7D0B7394AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Municipios" sheetId="3" r:id="rId3"/>
     <sheet name="Campos" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semana!$A$1:$E$104</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11369" uniqueCount="5505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11370" uniqueCount="5506">
   <si>
     <t>13/2021</t>
   </si>
@@ -16550,6 +16553,9 @@
   </si>
   <si>
     <t>Campo Identificado</t>
+  </si>
+  <si>
+    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -16975,8 +16981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB302E59-2CA3-4FD3-8181-58D34C34A8B3}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16998,821 +17004,824 @@
       <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E1" t="s">
+        <v>5505</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44206</v>
+        <v>44920</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(TEXT(A2, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
-        <v>2021-01-10T00:00:00.000Z</v>
+        <v>2022-12-25T00:00:00.000Z</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("&lt;option value='",B2,"'&gt;",C2,"&lt;/option&gt;")</f>
-        <v>&lt;option value='2021-01-10T00:00:00.000Z'&gt;02/2021&lt;/option&gt;</v>
+        <v>&lt;option value='2022-12-25T00:00:00.000Z'&gt;52/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44213</v>
+        <v>44913</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">CONCATENATE(TEXT(A3, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
-        <v>2021-01-17T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A3, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-12-18T00:00:00.000Z</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">CONCATENATE("&lt;option value='",B3,"'&gt;",C3,"&lt;/option&gt;")</f>
-        <v>&lt;option value='2021-01-17T00:00:00.000Z'&gt;03/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B3,"'&gt;",C3,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-12-18T00:00:00.000Z'&gt;51/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44220</v>
+        <v>44906</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-01-24T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A4, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-12-11T00:00:00.000Z</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-01-24T00:00:00.000Z'&gt;04/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B4,"'&gt;",C4,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-12-11T00:00:00.000Z'&gt;50/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44227</v>
+        <v>44899</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-01-31T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A5, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-12-04T00:00:00.000Z</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-01-31T00:00:00.000Z'&gt;05/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B5,"'&gt;",C5,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-12-04T00:00:00.000Z'&gt;49/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44234</v>
+        <v>44892</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-02-07T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A6, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-11-27T00:00:00.000Z</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-02-07T00:00:00.000Z'&gt;06/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B6,"'&gt;",C6,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-11-27T00:00:00.000Z'&gt;48/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44241</v>
+        <v>44885</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-02-14T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A7, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-11-20T00:00:00.000Z</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-02-14T00:00:00.000Z'&gt;07/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B7,"'&gt;",C7,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-11-20T00:00:00.000Z'&gt;47/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44248</v>
+        <v>44878</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-02-21T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A8, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-11-13T00:00:00.000Z</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-02-21T00:00:00.000Z'&gt;08/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B8,"'&gt;",C8,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-11-13T00:00:00.000Z'&gt;46/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44255</v>
+        <v>44871</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-02-28T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A9, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-11-06T00:00:00.000Z</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-02-28T00:00:00.000Z'&gt;09/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B9,"'&gt;",C9,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-11-06T00:00:00.000Z'&gt;45/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44262</v>
+        <v>44864</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-03-07T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A10, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-10-30T00:00:00.000Z</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-03-07T00:00:00.000Z'&gt;10/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B10,"'&gt;",C10,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-10-30T00:00:00.000Z'&gt;44/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44269</v>
+        <v>44857</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-03-14T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A11, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-10-23T00:00:00.000Z</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-03-14T00:00:00.000Z'&gt;11/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B11,"'&gt;",C11,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-10-23T00:00:00.000Z'&gt;43/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44276</v>
+        <v>44850</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-03-21T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A12, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-10-16T00:00:00.000Z</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-03-21T00:00:00.000Z'&gt;12/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B12,"'&gt;",C12,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-10-16T00:00:00.000Z'&gt;42/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44283</v>
+        <v>44843</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-03-28T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A13, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-10-09T00:00:00.000Z</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-03-28T00:00:00.000Z'&gt;13/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B13,"'&gt;",C13,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-10-09T00:00:00.000Z'&gt;41/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44290</v>
+        <v>44836</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-04-04T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A14, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-10-02T00:00:00.000Z</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-04-04T00:00:00.000Z'&gt;14/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B14,"'&gt;",C14,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-10-02T00:00:00.000Z'&gt;40/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44297</v>
+        <v>44829</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-04-11T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A15, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-09-25T00:00:00.000Z</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-04-11T00:00:00.000Z'&gt;15/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B15,"'&gt;",C15,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-09-25T00:00:00.000Z'&gt;39/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44304</v>
+        <v>44822</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-04-18T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A16, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-09-18T00:00:00.000Z</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-04-18T00:00:00.000Z'&gt;16/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B16,"'&gt;",C16,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-09-18T00:00:00.000Z'&gt;38/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44311</v>
+        <v>44815</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-04-25T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A17, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-09-11T00:00:00.000Z</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-04-25T00:00:00.000Z'&gt;17/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B17,"'&gt;",C17,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-09-11T00:00:00.000Z'&gt;37/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44318</v>
+        <v>44808</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-05-02T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A18, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-09-04T00:00:00.000Z</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-05-02T00:00:00.000Z'&gt;18/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B18,"'&gt;",C18,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-09-04T00:00:00.000Z'&gt;36/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44325</v>
+        <v>44801</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-05-09T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A19, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-08-28T00:00:00.000Z</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-05-09T00:00:00.000Z'&gt;19/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B19,"'&gt;",C19,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-08-28T00:00:00.000Z'&gt;35/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44332</v>
+        <v>44794</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-05-16T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A20, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-08-21T00:00:00.000Z</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-05-16T00:00:00.000Z'&gt;20/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B20,"'&gt;",C20,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-08-21T00:00:00.000Z'&gt;34/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44339</v>
+        <v>44787</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-05-23T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A21, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-08-14T00:00:00.000Z</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-05-23T00:00:00.000Z'&gt;21/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B21,"'&gt;",C21,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-08-14T00:00:00.000Z'&gt;33/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44346</v>
+        <v>44780</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-05-30T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A22, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-08-07T00:00:00.000Z</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-05-30T00:00:00.000Z'&gt;22/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B22,"'&gt;",C22,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-08-07T00:00:00.000Z'&gt;32/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44353</v>
+        <v>44773</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-06-06T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A23, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-07-31T00:00:00.000Z</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-06-06T00:00:00.000Z'&gt;23/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B23,"'&gt;",C23,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-07-31T00:00:00.000Z'&gt;31/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44360</v>
+        <v>44766</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-06-13T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A24, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-07-24T00:00:00.000Z</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-06-13T00:00:00.000Z'&gt;24/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B24,"'&gt;",C24,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-07-24T00:00:00.000Z'&gt;30/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44367</v>
+        <v>44759</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-06-20T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A25, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-07-17T00:00:00.000Z</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-06-20T00:00:00.000Z'&gt;25/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B25,"'&gt;",C25,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-07-17T00:00:00.000Z'&gt;29/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44374</v>
+        <v>44752</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-06-27T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A26, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-07-10T00:00:00.000Z</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-06-27T00:00:00.000Z'&gt;26/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B26,"'&gt;",C26,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-07-10T00:00:00.000Z'&gt;28/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44381</v>
+        <v>44745</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-07-04T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A27, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-07-03T00:00:00.000Z</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-07-04T00:00:00.000Z'&gt;27/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B27,"'&gt;",C27,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-07-03T00:00:00.000Z'&gt;27/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44388</v>
+        <v>44738</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-07-11T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A28, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-06-26T00:00:00.000Z</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-07-11T00:00:00.000Z'&gt;28/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B28,"'&gt;",C28,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-06-26T00:00:00.000Z'&gt;26/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44395</v>
+        <v>44731</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-07-18T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A29, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-06-19T00:00:00.000Z</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-07-18T00:00:00.000Z'&gt;29/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B29,"'&gt;",C29,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-06-19T00:00:00.000Z'&gt;25/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44402</v>
+        <v>44724</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-07-25T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A30, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-06-12T00:00:00.000Z</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-07-25T00:00:00.000Z'&gt;30/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B30,"'&gt;",C30,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-06-12T00:00:00.000Z'&gt;24/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44409</v>
+        <v>44717</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-08-01T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A31, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-06-05T00:00:00.000Z</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-08-01T00:00:00.000Z'&gt;31/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B31,"'&gt;",C31,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-06-05T00:00:00.000Z'&gt;23/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44416</v>
+        <v>44710</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-08-08T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A32, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-05-29T00:00:00.000Z</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-08-08T00:00:00.000Z'&gt;32/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B32,"'&gt;",C32,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-05-29T00:00:00.000Z'&gt;22/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>44423</v>
+        <v>44703</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-08-15T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A33, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-05-22T00:00:00.000Z</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-08-15T00:00:00.000Z'&gt;33/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B33,"'&gt;",C33,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-05-22T00:00:00.000Z'&gt;21/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>44430</v>
+        <v>44696</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-08-22T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A34, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-05-15T00:00:00.000Z</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-08-22T00:00:00.000Z'&gt;34/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B34,"'&gt;",C34,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-05-15T00:00:00.000Z'&gt;20/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>44437</v>
+        <v>44689</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-08-29T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A35, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-05-08T00:00:00.000Z</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-08-29T00:00:00.000Z'&gt;35/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B35,"'&gt;",C35,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-05-08T00:00:00.000Z'&gt;19/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44444</v>
+        <v>44682</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-09-05T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A36, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-05-01T00:00:00.000Z</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-09-05T00:00:00.000Z'&gt;36/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B36,"'&gt;",C36,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-05-01T00:00:00.000Z'&gt;18/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44451</v>
+        <v>44675</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-09-12T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A37, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-04-24T00:00:00.000Z</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-09-12T00:00:00.000Z'&gt;37/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B37,"'&gt;",C37,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-04-24T00:00:00.000Z'&gt;17/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>44458</v>
+        <v>44668</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-09-19T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A38, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-04-17T00:00:00.000Z</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-09-19T00:00:00.000Z'&gt;38/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B38,"'&gt;",C38,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-04-17T00:00:00.000Z'&gt;16/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44465</v>
+        <v>44661</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-09-26T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A39, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-04-10T00:00:00.000Z</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-09-26T00:00:00.000Z'&gt;39/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B39,"'&gt;",C39,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-04-10T00:00:00.000Z'&gt;15/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44472</v>
+        <v>44654</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-10-03T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A40, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-04-03T00:00:00.000Z</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-10-03T00:00:00.000Z'&gt;40/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B40,"'&gt;",C40,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-04-03T00:00:00.000Z'&gt;14/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>44479</v>
+        <v>44647</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-10-10T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A41, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-03-27T00:00:00.000Z</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-10-10T00:00:00.000Z'&gt;41/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B41,"'&gt;",C41,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-03-27T00:00:00.000Z'&gt;13/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>44486</v>
+        <v>44640</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-10-17T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A42, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-03-20T00:00:00.000Z</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-10-17T00:00:00.000Z'&gt;42/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B42,"'&gt;",C42,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-03-20T00:00:00.000Z'&gt;12/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>44493</v>
+        <v>44633</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-10-24T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A43, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-03-13T00:00:00.000Z</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-10-24T00:00:00.000Z'&gt;43/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B43,"'&gt;",C43,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-03-13T00:00:00.000Z'&gt;11/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44500</v>
+        <v>44626</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-10-31T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A44, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-03-06T00:00:00.000Z</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-10-31T00:00:00.000Z'&gt;44/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B44,"'&gt;",C44,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-03-06T00:00:00.000Z'&gt;10/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44507</v>
+        <v>44619</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-11-07T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A45, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-02-27T00:00:00.000Z</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-11-07T00:00:00.000Z'&gt;45/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B45,"'&gt;",C45,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-02-27T00:00:00.000Z'&gt;09/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>44514</v>
+        <v>44612</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-11-14T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A46, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-02-20T00:00:00.000Z</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-11-14T00:00:00.000Z'&gt;46/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B46,"'&gt;",C46,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-02-20T00:00:00.000Z'&gt;08/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>44521</v>
+        <v>44605</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-11-21T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A47, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-02-13T00:00:00.000Z</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-11-21T00:00:00.000Z'&gt;47/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B47,"'&gt;",C47,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-02-13T00:00:00.000Z'&gt;07/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>44528</v>
+        <v>44598</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-11-28T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A48, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-02-06T00:00:00.000Z</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-11-28T00:00:00.000Z'&gt;48/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B48,"'&gt;",C48,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-02-06T00:00:00.000Z'&gt;06/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>44535</v>
+        <v>44591</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-12-05T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A49, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-01-30T00:00:00.000Z</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-12-05T00:00:00.000Z'&gt;49/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B49,"'&gt;",C49,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-01-30T00:00:00.000Z'&gt;05/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>44542</v>
+        <v>44584</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-12-12T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A50, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-01-23T00:00:00.000Z</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-12-12T00:00:00.000Z'&gt;50/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B50,"'&gt;",C50,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-01-23T00:00:00.000Z'&gt;04/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>44549</v>
+        <v>44577</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-12-19T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A51, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-01-16T00:00:00.000Z</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-12-19T00:00:00.000Z'&gt;51/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B51,"'&gt;",C51,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-01-16T00:00:00.000Z'&gt;03/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>44556</v>
+        <v>44570</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-12-26T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A52, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2022-01-09T00:00:00.000Z</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2021-12-26T00:00:00.000Z'&gt;52/2021&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B52,"'&gt;",C52,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2022-01-09T00:00:00.000Z'&gt;02/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17820,834 +17829,839 @@
         <v>44563</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(TEXT(A53, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
         <v>2022-01-02T00:00:00.000Z</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("&lt;option value='",B53,"'&gt;",C53,"&lt;/option&gt;")</f>
         <v>&lt;option value='2022-01-02T00:00:00.000Z'&gt;01/2022&lt;/option&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>44570</v>
+        <v>44556</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-01-09T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A54, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-12-26T00:00:00.000Z</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-01-09T00:00:00.000Z'&gt;02/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B54,"'&gt;",C54,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-12-26T00:00:00.000Z'&gt;52/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>44577</v>
+        <v>44549</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-01-16T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A55, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-12-19T00:00:00.000Z</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-01-16T00:00:00.000Z'&gt;03/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B55,"'&gt;",C55,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-12-19T00:00:00.000Z'&gt;51/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>44584</v>
+        <v>44542</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-01-23T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A56, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-12-12T00:00:00.000Z</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-01-23T00:00:00.000Z'&gt;04/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B56,"'&gt;",C56,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-12-12T00:00:00.000Z'&gt;50/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>44591</v>
+        <v>44535</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-01-30T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A57, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-12-05T00:00:00.000Z</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-01-30T00:00:00.000Z'&gt;05/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B57,"'&gt;",C57,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-12-05T00:00:00.000Z'&gt;49/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>44598</v>
+        <v>44528</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-02-06T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A58, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-11-28T00:00:00.000Z</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-02-06T00:00:00.000Z'&gt;06/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B58,"'&gt;",C58,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-11-28T00:00:00.000Z'&gt;48/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>44605</v>
+        <v>44521</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-02-13T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A59, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-11-21T00:00:00.000Z</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-02-13T00:00:00.000Z'&gt;07/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B59,"'&gt;",C59,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-11-21T00:00:00.000Z'&gt;47/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>44612</v>
+        <v>44514</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-02-20T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A60, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-11-14T00:00:00.000Z</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-02-20T00:00:00.000Z'&gt;08/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B60,"'&gt;",C60,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-11-14T00:00:00.000Z'&gt;46/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>44619</v>
+        <v>44507</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-02-27T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A61, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-11-07T00:00:00.000Z</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-02-27T00:00:00.000Z'&gt;09/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B61,"'&gt;",C61,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-11-07T00:00:00.000Z'&gt;45/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>44626</v>
+        <v>44500</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-03-06T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A62, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-10-31T00:00:00.000Z</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-03-06T00:00:00.000Z'&gt;10/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B62,"'&gt;",C62,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-10-31T00:00:00.000Z'&gt;44/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>44633</v>
+        <v>44493</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-03-13T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A63, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-10-24T00:00:00.000Z</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-03-13T00:00:00.000Z'&gt;11/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B63,"'&gt;",C63,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-10-24T00:00:00.000Z'&gt;43/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>44640</v>
+        <v>44486</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-03-20T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A64, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-10-17T00:00:00.000Z</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-03-20T00:00:00.000Z'&gt;12/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B64,"'&gt;",C64,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-10-17T00:00:00.000Z'&gt;42/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>44647</v>
+        <v>44479</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-03-27T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A65, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-10-10T00:00:00.000Z</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-03-27T00:00:00.000Z'&gt;13/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B65,"'&gt;",C65,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-10-10T00:00:00.000Z'&gt;41/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>44654</v>
+        <v>44472</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-04-03T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A66, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-10-03T00:00:00.000Z</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;option value='2022-04-03T00:00:00.000Z'&gt;14/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B66,"'&gt;",C66,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-10-03T00:00:00.000Z'&gt;40/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>44661</v>
+        <v>44465</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B104" si="2">CONCATENATE(TEXT(A67, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
-        <v>2022-04-10T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A67, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-09-26T00:00:00.000Z</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E104" si="3">CONCATENATE("&lt;option value='",B67,"'&gt;",C67,"&lt;/option&gt;")</f>
-        <v>&lt;option value='2022-04-10T00:00:00.000Z'&gt;15/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B67,"'&gt;",C67,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-09-26T00:00:00.000Z'&gt;39/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>44668</v>
+        <v>44458</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-04-17T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A68, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-09-19T00:00:00.000Z</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-04-17T00:00:00.000Z'&gt;16/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B68,"'&gt;",C68,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-09-19T00:00:00.000Z'&gt;38/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>44675</v>
+        <v>44451</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-04-24T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A69, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-09-12T00:00:00.000Z</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-04-24T00:00:00.000Z'&gt;17/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B69,"'&gt;",C69,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-09-12T00:00:00.000Z'&gt;37/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>44682</v>
+        <v>44444</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-05-01T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A70, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-09-05T00:00:00.000Z</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-05-01T00:00:00.000Z'&gt;18/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B70,"'&gt;",C70,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-09-05T00:00:00.000Z'&gt;36/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>44689</v>
+        <v>44437</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-05-08T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A71, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-08-29T00:00:00.000Z</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-05-08T00:00:00.000Z'&gt;19/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B71,"'&gt;",C71,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-08-29T00:00:00.000Z'&gt;35/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>44696</v>
+        <v>44430</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-05-15T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A72, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-08-22T00:00:00.000Z</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-05-15T00:00:00.000Z'&gt;20/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B72,"'&gt;",C72,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-08-22T00:00:00.000Z'&gt;34/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>44703</v>
+        <v>44423</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-05-22T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A73, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-08-15T00:00:00.000Z</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-05-22T00:00:00.000Z'&gt;21/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B73,"'&gt;",C73,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-08-15T00:00:00.000Z'&gt;33/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>44710</v>
+        <v>44416</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-05-29T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A74, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-08-08T00:00:00.000Z</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-05-29T00:00:00.000Z'&gt;22/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B74,"'&gt;",C74,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-08-08T00:00:00.000Z'&gt;32/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>44717</v>
+        <v>44409</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-06-05T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A75, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-08-01T00:00:00.000Z</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-06-05T00:00:00.000Z'&gt;23/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B75,"'&gt;",C75,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-08-01T00:00:00.000Z'&gt;31/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>44724</v>
+        <v>44402</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-06-12T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A76, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-07-25T00:00:00.000Z</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-06-12T00:00:00.000Z'&gt;24/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B76,"'&gt;",C76,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-07-25T00:00:00.000Z'&gt;30/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>44731</v>
+        <v>44395</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-06-19T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A77, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-07-18T00:00:00.000Z</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-06-19T00:00:00.000Z'&gt;25/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B77,"'&gt;",C77,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-07-18T00:00:00.000Z'&gt;29/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>44738</v>
+        <v>44388</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-06-26T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A78, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-07-11T00:00:00.000Z</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-06-26T00:00:00.000Z'&gt;26/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B78,"'&gt;",C78,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-07-11T00:00:00.000Z'&gt;28/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>44745</v>
+        <v>44381</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-07-03T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A79, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-07-04T00:00:00.000Z</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-07-03T00:00:00.000Z'&gt;27/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B79,"'&gt;",C79,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-07-04T00:00:00.000Z'&gt;27/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>44752</v>
+        <v>44374</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-07-10T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A80, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-06-27T00:00:00.000Z</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-07-10T00:00:00.000Z'&gt;28/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B80,"'&gt;",C80,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-06-27T00:00:00.000Z'&gt;26/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>44759</v>
+        <v>44367</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-07-17T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A81, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-06-20T00:00:00.000Z</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-07-17T00:00:00.000Z'&gt;29/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B81,"'&gt;",C81,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-06-20T00:00:00.000Z'&gt;25/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>44766</v>
+        <v>44360</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-07-24T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A82, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-06-13T00:00:00.000Z</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-07-24T00:00:00.000Z'&gt;30/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B82,"'&gt;",C82,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-06-13T00:00:00.000Z'&gt;24/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>44773</v>
+        <v>44353</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-07-31T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A83, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-06-06T00:00:00.000Z</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-07-31T00:00:00.000Z'&gt;31/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B83,"'&gt;",C83,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-06-06T00:00:00.000Z'&gt;23/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>44780</v>
+        <v>44346</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-08-07T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A84, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-05-30T00:00:00.000Z</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-08-07T00:00:00.000Z'&gt;32/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B84,"'&gt;",C84,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-05-30T00:00:00.000Z'&gt;22/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>44787</v>
+        <v>44339</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-08-14T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A85, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-05-23T00:00:00.000Z</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-08-14T00:00:00.000Z'&gt;33/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B85,"'&gt;",C85,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-05-23T00:00:00.000Z'&gt;21/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>44794</v>
+        <v>44332</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-08-21T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A86, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-05-16T00:00:00.000Z</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-08-21T00:00:00.000Z'&gt;34/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B86,"'&gt;",C86,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-05-16T00:00:00.000Z'&gt;20/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>44801</v>
+        <v>44325</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-08-28T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A87, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-05-09T00:00:00.000Z</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-08-28T00:00:00.000Z'&gt;35/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B87,"'&gt;",C87,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-05-09T00:00:00.000Z'&gt;19/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>44808</v>
+        <v>44318</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-09-04T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A88, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-05-02T00:00:00.000Z</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-09-04T00:00:00.000Z'&gt;36/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B88,"'&gt;",C88,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-05-02T00:00:00.000Z'&gt;18/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>44815</v>
+        <v>44311</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-09-11T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A89, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-04-25T00:00:00.000Z</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-09-11T00:00:00.000Z'&gt;37/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B89,"'&gt;",C89,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-04-25T00:00:00.000Z'&gt;17/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>44822</v>
+        <v>44304</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-09-18T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A90, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-04-18T00:00:00.000Z</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-09-18T00:00:00.000Z'&gt;38/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B90,"'&gt;",C90,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-04-18T00:00:00.000Z'&gt;16/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>44829</v>
+        <v>44297</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-09-25T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A91, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-04-11T00:00:00.000Z</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-09-25T00:00:00.000Z'&gt;39/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B91,"'&gt;",C91,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-04-11T00:00:00.000Z'&gt;15/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>44836</v>
+        <v>44290</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-10-02T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A92, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-04-04T00:00:00.000Z</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-10-02T00:00:00.000Z'&gt;40/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B92,"'&gt;",C92,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-04-04T00:00:00.000Z'&gt;14/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>44843</v>
+        <v>44283</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-10-09T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A93, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-03-28T00:00:00.000Z</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-10-09T00:00:00.000Z'&gt;41/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B93,"'&gt;",C93,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-03-28T00:00:00.000Z'&gt;13/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>44850</v>
+        <v>44276</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-10-16T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A94, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-03-21T00:00:00.000Z</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-10-16T00:00:00.000Z'&gt;42/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B94,"'&gt;",C94,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-03-21T00:00:00.000Z'&gt;12/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>44857</v>
+        <v>44269</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-10-23T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A95, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-03-14T00:00:00.000Z</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-10-23T00:00:00.000Z'&gt;43/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B95,"'&gt;",C95,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-03-14T00:00:00.000Z'&gt;11/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>44864</v>
+        <v>44262</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-10-30T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A96, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-03-07T00:00:00.000Z</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-10-30T00:00:00.000Z'&gt;44/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B96,"'&gt;",C96,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-03-07T00:00:00.000Z'&gt;10/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>44871</v>
+        <v>44255</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-11-06T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A97, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-02-28T00:00:00.000Z</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-11-06T00:00:00.000Z'&gt;45/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B97,"'&gt;",C97,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-02-28T00:00:00.000Z'&gt;09/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>44878</v>
+        <v>44248</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-11-13T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A98, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-02-21T00:00:00.000Z</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-11-13T00:00:00.000Z'&gt;46/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B98,"'&gt;",C98,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-02-21T00:00:00.000Z'&gt;08/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>44885</v>
+        <v>44241</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-11-20T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A99, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-02-14T00:00:00.000Z</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-11-20T00:00:00.000Z'&gt;47/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B99,"'&gt;",C99,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-02-14T00:00:00.000Z'&gt;07/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>44892</v>
+        <v>44234</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-11-27T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A100, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-02-07T00:00:00.000Z</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-11-27T00:00:00.000Z'&gt;48/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B100,"'&gt;",C100,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-02-07T00:00:00.000Z'&gt;06/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>44899</v>
+        <v>44227</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-12-04T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A101, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-01-31T00:00:00.000Z</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-12-04T00:00:00.000Z'&gt;49/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B101,"'&gt;",C101,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-01-31T00:00:00.000Z'&gt;05/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>44906</v>
+        <v>44220</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-12-11T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A102, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-01-24T00:00:00.000Z</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-12-11T00:00:00.000Z'&gt;50/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B102,"'&gt;",C102,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-01-24T00:00:00.000Z'&gt;04/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>44913</v>
+        <v>44213</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-12-18T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A103, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-01-17T00:00:00.000Z</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-12-18T00:00:00.000Z'&gt;51/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B103,"'&gt;",C103,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-01-17T00:00:00.000Z'&gt;03/2021&lt;/option&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>44920</v>
+        <v>44206</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
-        <v>2022-12-25T00:00:00.000Z</v>
+        <f>CONCATENATE(TEXT(A104, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <v>2021-01-10T00:00:00.000Z</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value='2022-12-25T00:00:00.000Z'&gt;52/2022&lt;/option&gt;</v>
+        <f>CONCATENATE("&lt;option value='",B104,"'&gt;",C104,"&lt;/option&gt;")</f>
+        <v>&lt;option value='2021-01-10T00:00:00.000Z'&gt;02/2021&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E104" xr:uid="{AB302E59-2CA3-4FD3-8181-58D34C34A8B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E104">
+      <sortCondition descending="1" ref="A1:A104"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -80224,7 +80238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D60D922-4C09-44AF-9A6B-383A8DAE0C8E}">
   <dimension ref="A1:BS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>

--- a/firefoxextension/Template.xlsx
+++ b/firefoxextension/Template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\PycharmProjects\sheetuploadextension\firefoxextension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF3C86F-2D29-4FA3-923E-7D0B7394AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCE406-9D12-467A-AC4B-B42B414E9EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{19535F76-F98B-451E-8E48-881A13F8182D}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana" sheetId="1" r:id="rId1"/>
-    <sheet name="UF" sheetId="2" r:id="rId2"/>
-    <sheet name="Municipios" sheetId="3" r:id="rId3"/>
-    <sheet name="Campos" sheetId="4" r:id="rId4"/>
+    <sheet name="Capitais" sheetId="5" r:id="rId2"/>
+    <sheet name="UF" sheetId="2" r:id="rId3"/>
+    <sheet name="Municipios" sheetId="3" r:id="rId4"/>
+    <sheet name="Campos" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semana!$A$1:$E$104</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11370" uniqueCount="5506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11437" uniqueCount="5547">
   <si>
     <t>13/2021</t>
   </si>
@@ -16556,6 +16557,142 @@
   </si>
   <si>
     <t>Option</t>
+  </si>
+  <si>
+    <t> Rondônia</t>
+  </si>
+  <si>
+    <t>34 090,952</t>
+  </si>
+  <si>
+    <t> Amazonas</t>
+  </si>
+  <si>
+    <t>11 401,092</t>
+  </si>
+  <si>
+    <t> Acre</t>
+  </si>
+  <si>
+    <t>8 834,942</t>
+  </si>
+  <si>
+    <t> Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>8 082,978</t>
+  </si>
+  <si>
+    <t> Amapá</t>
+  </si>
+  <si>
+    <t>6 563,849</t>
+  </si>
+  <si>
+    <t> Distrito Federal</t>
+  </si>
+  <si>
+    <t>5 760,783</t>
+  </si>
+  <si>
+    <t> Roraima</t>
+  </si>
+  <si>
+    <t>5 687,037</t>
+  </si>
+  <si>
+    <t> Mato Grosso</t>
+  </si>
+  <si>
+    <t>3 266,538</t>
+  </si>
+  <si>
+    <t> Tocantins</t>
+  </si>
+  <si>
+    <t>2 227,444</t>
+  </si>
+  <si>
+    <t> São Paulo</t>
+  </si>
+  <si>
+    <t>1 521,110</t>
+  </si>
+  <si>
+    <t> Piauí</t>
+  </si>
+  <si>
+    <t>1 391,046</t>
+  </si>
+  <si>
+    <t> Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>1 200,329</t>
+  </si>
+  <si>
+    <t> Pará</t>
+  </si>
+  <si>
+    <t>1 059,466</t>
+  </si>
+  <si>
+    <t> Goiás</t>
+  </si>
+  <si>
+    <r>
+      <t>Salvador</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[nota 1]</t>
+    </r>
+  </si>
+  <si>
+    <t> Bahia</t>
+  </si>
+  <si>
+    <t> Santa Catarina</t>
+  </si>
+  <si>
+    <t> Maranhão</t>
+  </si>
+  <si>
+    <t> Alagoas</t>
+  </si>
+  <si>
+    <t> Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t> Paraná</t>
+  </si>
+  <si>
+    <t> Minas Gerais</t>
+  </si>
+  <si>
+    <t> Ceará</t>
+  </si>
+  <si>
+    <t> Pernambuco</t>
+  </si>
+  <si>
+    <t> Paraíba</t>
+  </si>
+  <si>
+    <t> Sergipe</t>
+  </si>
+  <si>
+    <t> Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t> Espírito Santo</t>
   </si>
 </sst>
 </file>
@@ -16565,7 +16702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16598,6 +16735,22 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -16638,10 +16791,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16665,8 +16819,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16680,6 +16847,806 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60ED013-3DA9-487A-BCE7-C765C6FCC47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="3810000"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13" descr="Pará">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Pará"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59892724-0E7E-4516-B345-792B578C5BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="4191000"/>
+          <a:ext cx="190500" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4D1CBA-1B71-4DDE-85BB-DB4C18EEE900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="4381500"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15" descr="Bahia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Bahia"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8FD9C4-66B1-4693-A540-0850D76B21B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="4572000"/>
+          <a:ext cx="190500" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE41745-84F2-42D0-8E51-F59EDA87F52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="5010150"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3EC9F5-8349-4772-809F-B86F5101F5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="5391150"/>
+          <a:ext cx="190500" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB9A149-0232-4A3F-8B12-6B367596E0EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="5772150"/>
+          <a:ext cx="190500" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9E1D14-DA64-4595-8016-26256D0F46EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="5962650"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1D9D1E-B226-4CD6-A62B-AC03C6E6025B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="6534150"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1BA927-BB8F-44D7-A092-095363868FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="6724650"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19FC773-1F49-4F35-B74A-514FE0794549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="8248650"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE64F7B2-D376-417A-9579-C47532680F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="8439150"/>
+          <a:ext cx="190500" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3710CD51-8853-4318-BFA5-FD892767C14F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="9010650"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16981,7 +17948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB302E59-2CA3-4FD3-8181-58D34C34A8B3}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E104"/>
     </sheetView>
   </sheetViews>
@@ -17013,14 +17980,14 @@
         <v>44920</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(TEXT(A2, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" ref="B2:B33" si="0">CONCATENATE(TEXT(A2, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
         <v>2022-12-25T00:00:00.000Z</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("&lt;option value='",B2,"'&gt;",C2,"&lt;/option&gt;")</f>
+        <f t="shared" ref="E2:E33" si="1">CONCATENATE("&lt;option value='",B2,"'&gt;",C2,"&lt;/option&gt;")</f>
         <v>&lt;option value='2022-12-25T00:00:00.000Z'&gt;52/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17029,14 +17996,14 @@
         <v>44913</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE(TEXT(A3, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-12-18T00:00:00.000Z</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE("&lt;option value='",B3,"'&gt;",C3,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-12-18T00:00:00.000Z'&gt;51/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17045,14 +18012,14 @@
         <v>44906</v>
       </c>
       <c r="B4" t="str">
-        <f>CONCATENATE(TEXT(A4, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-12-11T00:00:00.000Z</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE("&lt;option value='",B4,"'&gt;",C4,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-12-11T00:00:00.000Z'&gt;50/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17061,14 +18028,14 @@
         <v>44899</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE(TEXT(A5, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-12-04T00:00:00.000Z</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE("&lt;option value='",B5,"'&gt;",C5,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-12-04T00:00:00.000Z'&gt;49/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17077,14 +18044,14 @@
         <v>44892</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE(TEXT(A6, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-11-27T00:00:00.000Z</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE("&lt;option value='",B6,"'&gt;",C6,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-11-27T00:00:00.000Z'&gt;48/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17093,14 +18060,14 @@
         <v>44885</v>
       </c>
       <c r="B7" t="str">
-        <f>CONCATENATE(TEXT(A7, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-11-20T00:00:00.000Z</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE("&lt;option value='",B7,"'&gt;",C7,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-11-20T00:00:00.000Z'&gt;47/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17109,14 +18076,14 @@
         <v>44878</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE(TEXT(A8, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-11-13T00:00:00.000Z</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE("&lt;option value='",B8,"'&gt;",C8,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-11-13T00:00:00.000Z'&gt;46/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17125,14 +18092,14 @@
         <v>44871</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE(TEXT(A9, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-11-06T00:00:00.000Z</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE("&lt;option value='",B9,"'&gt;",C9,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-11-06T00:00:00.000Z'&gt;45/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17141,14 +18108,14 @@
         <v>44864</v>
       </c>
       <c r="B10" t="str">
-        <f>CONCATENATE(TEXT(A10, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-10-30T00:00:00.000Z</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE("&lt;option value='",B10,"'&gt;",C10,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-10-30T00:00:00.000Z'&gt;44/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17157,14 +18124,14 @@
         <v>44857</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE(TEXT(A11, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-10-23T00:00:00.000Z</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("&lt;option value='",B11,"'&gt;",C11,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-10-23T00:00:00.000Z'&gt;43/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17173,14 +18140,14 @@
         <v>44850</v>
       </c>
       <c r="B12" t="str">
-        <f>CONCATENATE(TEXT(A12, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-10-16T00:00:00.000Z</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE("&lt;option value='",B12,"'&gt;",C12,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-10-16T00:00:00.000Z'&gt;42/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17189,14 +18156,14 @@
         <v>44843</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE(TEXT(A13, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-10-09T00:00:00.000Z</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE("&lt;option value='",B13,"'&gt;",C13,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-10-09T00:00:00.000Z'&gt;41/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17205,14 +18172,14 @@
         <v>44836</v>
       </c>
       <c r="B14" t="str">
-        <f>CONCATENATE(TEXT(A14, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-10-02T00:00:00.000Z</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE("&lt;option value='",B14,"'&gt;",C14,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-10-02T00:00:00.000Z'&gt;40/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17221,14 +18188,14 @@
         <v>44829</v>
       </c>
       <c r="B15" t="str">
-        <f>CONCATENATE(TEXT(A15, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-09-25T00:00:00.000Z</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE("&lt;option value='",B15,"'&gt;",C15,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-09-25T00:00:00.000Z'&gt;39/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17237,14 +18204,14 @@
         <v>44822</v>
       </c>
       <c r="B16" t="str">
-        <f>CONCATENATE(TEXT(A16, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-09-18T00:00:00.000Z</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE("&lt;option value='",B16,"'&gt;",C16,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-09-18T00:00:00.000Z'&gt;38/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17253,14 +18220,14 @@
         <v>44815</v>
       </c>
       <c r="B17" t="str">
-        <f>CONCATENATE(TEXT(A17, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-09-11T00:00:00.000Z</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE("&lt;option value='",B17,"'&gt;",C17,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-09-11T00:00:00.000Z'&gt;37/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17269,14 +18236,14 @@
         <v>44808</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE(TEXT(A18, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-09-04T00:00:00.000Z</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE("&lt;option value='",B18,"'&gt;",C18,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-09-04T00:00:00.000Z'&gt;36/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17285,14 +18252,14 @@
         <v>44801</v>
       </c>
       <c r="B19" t="str">
-        <f>CONCATENATE(TEXT(A19, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-08-28T00:00:00.000Z</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE("&lt;option value='",B19,"'&gt;",C19,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-08-28T00:00:00.000Z'&gt;35/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17301,14 +18268,14 @@
         <v>44794</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE(TEXT(A20, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-08-21T00:00:00.000Z</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE("&lt;option value='",B20,"'&gt;",C20,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-08-21T00:00:00.000Z'&gt;34/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17317,14 +18284,14 @@
         <v>44787</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE(TEXT(A21, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-08-14T00:00:00.000Z</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE("&lt;option value='",B21,"'&gt;",C21,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-08-14T00:00:00.000Z'&gt;33/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17333,14 +18300,14 @@
         <v>44780</v>
       </c>
       <c r="B22" t="str">
-        <f>CONCATENATE(TEXT(A22, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-08-07T00:00:00.000Z</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE("&lt;option value='",B22,"'&gt;",C22,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-08-07T00:00:00.000Z'&gt;32/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17349,14 +18316,14 @@
         <v>44773</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE(TEXT(A23, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-07-31T00:00:00.000Z</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE("&lt;option value='",B23,"'&gt;",C23,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-07-31T00:00:00.000Z'&gt;31/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17365,14 +18332,14 @@
         <v>44766</v>
       </c>
       <c r="B24" t="str">
-        <f>CONCATENATE(TEXT(A24, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-07-24T00:00:00.000Z</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("&lt;option value='",B24,"'&gt;",C24,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-07-24T00:00:00.000Z'&gt;30/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17381,14 +18348,14 @@
         <v>44759</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE(TEXT(A25, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-07-17T00:00:00.000Z</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE("&lt;option value='",B25,"'&gt;",C25,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-07-17T00:00:00.000Z'&gt;29/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17397,14 +18364,14 @@
         <v>44752</v>
       </c>
       <c r="B26" t="str">
-        <f>CONCATENATE(TEXT(A26, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-07-10T00:00:00.000Z</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE("&lt;option value='",B26,"'&gt;",C26,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-07-10T00:00:00.000Z'&gt;28/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17413,14 +18380,14 @@
         <v>44745</v>
       </c>
       <c r="B27" t="str">
-        <f>CONCATENATE(TEXT(A27, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-07-03T00:00:00.000Z</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE("&lt;option value='",B27,"'&gt;",C27,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-07-03T00:00:00.000Z'&gt;27/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17429,14 +18396,14 @@
         <v>44738</v>
       </c>
       <c r="B28" t="str">
-        <f>CONCATENATE(TEXT(A28, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-06-26T00:00:00.000Z</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE("&lt;option value='",B28,"'&gt;",C28,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-06-26T00:00:00.000Z'&gt;26/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17445,14 +18412,14 @@
         <v>44731</v>
       </c>
       <c r="B29" t="str">
-        <f>CONCATENATE(TEXT(A29, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-06-19T00:00:00.000Z</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE("&lt;option value='",B29,"'&gt;",C29,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-06-19T00:00:00.000Z'&gt;25/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17461,14 +18428,14 @@
         <v>44724</v>
       </c>
       <c r="B30" t="str">
-        <f>CONCATENATE(TEXT(A30, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-06-12T00:00:00.000Z</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE("&lt;option value='",B30,"'&gt;",C30,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-06-12T00:00:00.000Z'&gt;24/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17477,14 +18444,14 @@
         <v>44717</v>
       </c>
       <c r="B31" t="str">
-        <f>CONCATENATE(TEXT(A31, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-06-05T00:00:00.000Z</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE("&lt;option value='",B31,"'&gt;",C31,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-06-05T00:00:00.000Z'&gt;23/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17493,14 +18460,14 @@
         <v>44710</v>
       </c>
       <c r="B32" t="str">
-        <f>CONCATENATE(TEXT(A32, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-05-29T00:00:00.000Z</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE("&lt;option value='",B32,"'&gt;",C32,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-05-29T00:00:00.000Z'&gt;22/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17509,14 +18476,14 @@
         <v>44703</v>
       </c>
       <c r="B33" t="str">
-        <f>CONCATENATE(TEXT(A33, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="0"/>
         <v>2022-05-22T00:00:00.000Z</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE("&lt;option value='",B33,"'&gt;",C33,"&lt;/option&gt;")</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value='2022-05-22T00:00:00.000Z'&gt;21/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17525,14 +18492,14 @@
         <v>44696</v>
       </c>
       <c r="B34" t="str">
-        <f>CONCATENATE(TEXT(A34, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" ref="B34:B65" si="2">CONCATENATE(TEXT(A34, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
         <v>2022-05-15T00:00:00.000Z</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE("&lt;option value='",B34,"'&gt;",C34,"&lt;/option&gt;")</f>
+        <f t="shared" ref="E34:E65" si="3">CONCATENATE("&lt;option value='",B34,"'&gt;",C34,"&lt;/option&gt;")</f>
         <v>&lt;option value='2022-05-15T00:00:00.000Z'&gt;20/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17541,14 +18508,14 @@
         <v>44689</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE(TEXT(A35, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-05-08T00:00:00.000Z</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE("&lt;option value='",B35,"'&gt;",C35,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-05-08T00:00:00.000Z'&gt;19/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17557,14 +18524,14 @@
         <v>44682</v>
       </c>
       <c r="B36" t="str">
-        <f>CONCATENATE(TEXT(A36, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-05-01T00:00:00.000Z</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE("&lt;option value='",B36,"'&gt;",C36,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-05-01T00:00:00.000Z'&gt;18/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17573,14 +18540,14 @@
         <v>44675</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE(TEXT(A37, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-04-24T00:00:00.000Z</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE("&lt;option value='",B37,"'&gt;",C37,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-04-24T00:00:00.000Z'&gt;17/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17589,14 +18556,14 @@
         <v>44668</v>
       </c>
       <c r="B38" t="str">
-        <f>CONCATENATE(TEXT(A38, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-04-17T00:00:00.000Z</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="str">
-        <f>CONCATENATE("&lt;option value='",B38,"'&gt;",C38,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-04-17T00:00:00.000Z'&gt;16/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17605,14 +18572,14 @@
         <v>44661</v>
       </c>
       <c r="B39" t="str">
-        <f>CONCATENATE(TEXT(A39, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-04-10T00:00:00.000Z</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="str">
-        <f>CONCATENATE("&lt;option value='",B39,"'&gt;",C39,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-04-10T00:00:00.000Z'&gt;15/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17621,14 +18588,14 @@
         <v>44654</v>
       </c>
       <c r="B40" t="str">
-        <f>CONCATENATE(TEXT(A40, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-04-03T00:00:00.000Z</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="str">
-        <f>CONCATENATE("&lt;option value='",B40,"'&gt;",C40,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-04-03T00:00:00.000Z'&gt;14/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17637,14 +18604,14 @@
         <v>44647</v>
       </c>
       <c r="B41" t="str">
-        <f>CONCATENATE(TEXT(A41, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-03-27T00:00:00.000Z</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="str">
-        <f>CONCATENATE("&lt;option value='",B41,"'&gt;",C41,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-03-27T00:00:00.000Z'&gt;13/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17653,14 +18620,14 @@
         <v>44640</v>
       </c>
       <c r="B42" t="str">
-        <f>CONCATENATE(TEXT(A42, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-03-20T00:00:00.000Z</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E42" t="str">
-        <f>CONCATENATE("&lt;option value='",B42,"'&gt;",C42,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-03-20T00:00:00.000Z'&gt;12/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17669,14 +18636,14 @@
         <v>44633</v>
       </c>
       <c r="B43" t="str">
-        <f>CONCATENATE(TEXT(A43, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-03-13T00:00:00.000Z</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E43" t="str">
-        <f>CONCATENATE("&lt;option value='",B43,"'&gt;",C43,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-03-13T00:00:00.000Z'&gt;11/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17685,14 +18652,14 @@
         <v>44626</v>
       </c>
       <c r="B44" t="str">
-        <f>CONCATENATE(TEXT(A44, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-03-06T00:00:00.000Z</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E44" t="str">
-        <f>CONCATENATE("&lt;option value='",B44,"'&gt;",C44,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-03-06T00:00:00.000Z'&gt;10/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17701,14 +18668,14 @@
         <v>44619</v>
       </c>
       <c r="B45" t="str">
-        <f>CONCATENATE(TEXT(A45, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-02-27T00:00:00.000Z</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E45" t="str">
-        <f>CONCATENATE("&lt;option value='",B45,"'&gt;",C45,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-02-27T00:00:00.000Z'&gt;09/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17717,14 +18684,14 @@
         <v>44612</v>
       </c>
       <c r="B46" t="str">
-        <f>CONCATENATE(TEXT(A46, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-02-20T00:00:00.000Z</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E46" t="str">
-        <f>CONCATENATE("&lt;option value='",B46,"'&gt;",C46,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-02-20T00:00:00.000Z'&gt;08/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17733,14 +18700,14 @@
         <v>44605</v>
       </c>
       <c r="B47" t="str">
-        <f>CONCATENATE(TEXT(A47, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-02-13T00:00:00.000Z</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E47" t="str">
-        <f>CONCATENATE("&lt;option value='",B47,"'&gt;",C47,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-02-13T00:00:00.000Z'&gt;07/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17749,14 +18716,14 @@
         <v>44598</v>
       </c>
       <c r="B48" t="str">
-        <f>CONCATENATE(TEXT(A48, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-02-06T00:00:00.000Z</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E48" t="str">
-        <f>CONCATENATE("&lt;option value='",B48,"'&gt;",C48,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-02-06T00:00:00.000Z'&gt;06/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17765,14 +18732,14 @@
         <v>44591</v>
       </c>
       <c r="B49" t="str">
-        <f>CONCATENATE(TEXT(A49, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-01-30T00:00:00.000Z</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E49" t="str">
-        <f>CONCATENATE("&lt;option value='",B49,"'&gt;",C49,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-01-30T00:00:00.000Z'&gt;05/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17781,14 +18748,14 @@
         <v>44584</v>
       </c>
       <c r="B50" t="str">
-        <f>CONCATENATE(TEXT(A50, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-01-23T00:00:00.000Z</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE("&lt;option value='",B50,"'&gt;",C50,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-01-23T00:00:00.000Z'&gt;04/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17797,14 +18764,14 @@
         <v>44577</v>
       </c>
       <c r="B51" t="str">
-        <f>CONCATENATE(TEXT(A51, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-01-16T00:00:00.000Z</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E51" t="str">
-        <f>CONCATENATE("&lt;option value='",B51,"'&gt;",C51,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-01-16T00:00:00.000Z'&gt;03/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17813,14 +18780,14 @@
         <v>44570</v>
       </c>
       <c r="B52" t="str">
-        <f>CONCATENATE(TEXT(A52, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-01-09T00:00:00.000Z</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E52" t="str">
-        <f>CONCATENATE("&lt;option value='",B52,"'&gt;",C52,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-01-09T00:00:00.000Z'&gt;02/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17829,14 +18796,14 @@
         <v>44563</v>
       </c>
       <c r="B53" t="str">
-        <f>CONCATENATE(TEXT(A53, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2022-01-02T00:00:00.000Z</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E53" t="str">
-        <f>CONCATENATE("&lt;option value='",B53,"'&gt;",C53,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2022-01-02T00:00:00.000Z'&gt;01/2022&lt;/option&gt;</v>
       </c>
     </row>
@@ -17845,14 +18812,14 @@
         <v>44556</v>
       </c>
       <c r="B54" t="str">
-        <f>CONCATENATE(TEXT(A54, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-12-26T00:00:00.000Z</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E54" t="str">
-        <f>CONCATENATE("&lt;option value='",B54,"'&gt;",C54,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-12-26T00:00:00.000Z'&gt;52/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17861,14 +18828,14 @@
         <v>44549</v>
       </c>
       <c r="B55" t="str">
-        <f>CONCATENATE(TEXT(A55, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-12-19T00:00:00.000Z</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E55" t="str">
-        <f>CONCATENATE("&lt;option value='",B55,"'&gt;",C55,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-12-19T00:00:00.000Z'&gt;51/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17877,14 +18844,14 @@
         <v>44542</v>
       </c>
       <c r="B56" t="str">
-        <f>CONCATENATE(TEXT(A56, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-12-12T00:00:00.000Z</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E56" t="str">
-        <f>CONCATENATE("&lt;option value='",B56,"'&gt;",C56,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-12-12T00:00:00.000Z'&gt;50/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17893,14 +18860,14 @@
         <v>44535</v>
       </c>
       <c r="B57" t="str">
-        <f>CONCATENATE(TEXT(A57, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-12-05T00:00:00.000Z</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="str">
-        <f>CONCATENATE("&lt;option value='",B57,"'&gt;",C57,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-12-05T00:00:00.000Z'&gt;49/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17909,14 +18876,14 @@
         <v>44528</v>
       </c>
       <c r="B58" t="str">
-        <f>CONCATENATE(TEXT(A58, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-11-28T00:00:00.000Z</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E58" t="str">
-        <f>CONCATENATE("&lt;option value='",B58,"'&gt;",C58,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-11-28T00:00:00.000Z'&gt;48/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17925,14 +18892,14 @@
         <v>44521</v>
       </c>
       <c r="B59" t="str">
-        <f>CONCATENATE(TEXT(A59, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-11-21T00:00:00.000Z</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E59" t="str">
-        <f>CONCATENATE("&lt;option value='",B59,"'&gt;",C59,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-11-21T00:00:00.000Z'&gt;47/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17941,14 +18908,14 @@
         <v>44514</v>
       </c>
       <c r="B60" t="str">
-        <f>CONCATENATE(TEXT(A60, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-11-14T00:00:00.000Z</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E60" t="str">
-        <f>CONCATENATE("&lt;option value='",B60,"'&gt;",C60,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-11-14T00:00:00.000Z'&gt;46/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17957,14 +18924,14 @@
         <v>44507</v>
       </c>
       <c r="B61" t="str">
-        <f>CONCATENATE(TEXT(A61, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-11-07T00:00:00.000Z</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E61" t="str">
-        <f>CONCATENATE("&lt;option value='",B61,"'&gt;",C61,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-11-07T00:00:00.000Z'&gt;45/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17973,14 +18940,14 @@
         <v>44500</v>
       </c>
       <c r="B62" t="str">
-        <f>CONCATENATE(TEXT(A62, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-10-31T00:00:00.000Z</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E62" t="str">
-        <f>CONCATENATE("&lt;option value='",B62,"'&gt;",C62,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-10-31T00:00:00.000Z'&gt;44/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -17989,14 +18956,14 @@
         <v>44493</v>
       </c>
       <c r="B63" t="str">
-        <f>CONCATENATE(TEXT(A63, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-10-24T00:00:00.000Z</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE("&lt;option value='",B63,"'&gt;",C63,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-10-24T00:00:00.000Z'&gt;43/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18005,14 +18972,14 @@
         <v>44486</v>
       </c>
       <c r="B64" t="str">
-        <f>CONCATENATE(TEXT(A64, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-10-17T00:00:00.000Z</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E64" t="str">
-        <f>CONCATENATE("&lt;option value='",B64,"'&gt;",C64,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-10-17T00:00:00.000Z'&gt;42/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18021,14 +18988,14 @@
         <v>44479</v>
       </c>
       <c r="B65" t="str">
-        <f>CONCATENATE(TEXT(A65, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="2"/>
         <v>2021-10-10T00:00:00.000Z</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E65" t="str">
-        <f>CONCATENATE("&lt;option value='",B65,"'&gt;",C65,"&lt;/option&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;option value='2021-10-10T00:00:00.000Z'&gt;41/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18037,14 +19004,14 @@
         <v>44472</v>
       </c>
       <c r="B66" t="str">
-        <f>CONCATENATE(TEXT(A66, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" ref="B66:B97" si="4">CONCATENATE(TEXT(A66, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
         <v>2021-10-03T00:00:00.000Z</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E66" t="str">
-        <f>CONCATENATE("&lt;option value='",B66,"'&gt;",C66,"&lt;/option&gt;")</f>
+        <f t="shared" ref="E66:E97" si="5">CONCATENATE("&lt;option value='",B66,"'&gt;",C66,"&lt;/option&gt;")</f>
         <v>&lt;option value='2021-10-03T00:00:00.000Z'&gt;40/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18053,14 +19020,14 @@
         <v>44465</v>
       </c>
       <c r="B67" t="str">
-        <f>CONCATENATE(TEXT(A67, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-09-26T00:00:00.000Z</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E67" t="str">
-        <f>CONCATENATE("&lt;option value='",B67,"'&gt;",C67,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-09-26T00:00:00.000Z'&gt;39/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18069,14 +19036,14 @@
         <v>44458</v>
       </c>
       <c r="B68" t="str">
-        <f>CONCATENATE(TEXT(A68, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-09-19T00:00:00.000Z</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E68" t="str">
-        <f>CONCATENATE("&lt;option value='",B68,"'&gt;",C68,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-09-19T00:00:00.000Z'&gt;38/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18085,14 +19052,14 @@
         <v>44451</v>
       </c>
       <c r="B69" t="str">
-        <f>CONCATENATE(TEXT(A69, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-09-12T00:00:00.000Z</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E69" t="str">
-        <f>CONCATENATE("&lt;option value='",B69,"'&gt;",C69,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-09-12T00:00:00.000Z'&gt;37/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18101,14 +19068,14 @@
         <v>44444</v>
       </c>
       <c r="B70" t="str">
-        <f>CONCATENATE(TEXT(A70, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-09-05T00:00:00.000Z</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E70" t="str">
-        <f>CONCATENATE("&lt;option value='",B70,"'&gt;",C70,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-09-05T00:00:00.000Z'&gt;36/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18117,14 +19084,14 @@
         <v>44437</v>
       </c>
       <c r="B71" t="str">
-        <f>CONCATENATE(TEXT(A71, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-08-29T00:00:00.000Z</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="str">
-        <f>CONCATENATE("&lt;option value='",B71,"'&gt;",C71,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-08-29T00:00:00.000Z'&gt;35/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18133,14 +19100,14 @@
         <v>44430</v>
       </c>
       <c r="B72" t="str">
-        <f>CONCATENATE(TEXT(A72, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-08-22T00:00:00.000Z</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E72" t="str">
-        <f>CONCATENATE("&lt;option value='",B72,"'&gt;",C72,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-08-22T00:00:00.000Z'&gt;34/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18149,14 +19116,14 @@
         <v>44423</v>
       </c>
       <c r="B73" t="str">
-        <f>CONCATENATE(TEXT(A73, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-08-15T00:00:00.000Z</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E73" t="str">
-        <f>CONCATENATE("&lt;option value='",B73,"'&gt;",C73,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-08-15T00:00:00.000Z'&gt;33/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18165,14 +19132,14 @@
         <v>44416</v>
       </c>
       <c r="B74" t="str">
-        <f>CONCATENATE(TEXT(A74, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-08-08T00:00:00.000Z</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E74" t="str">
-        <f>CONCATENATE("&lt;option value='",B74,"'&gt;",C74,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-08-08T00:00:00.000Z'&gt;32/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18181,14 +19148,14 @@
         <v>44409</v>
       </c>
       <c r="B75" t="str">
-        <f>CONCATENATE(TEXT(A75, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-08-01T00:00:00.000Z</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="str">
-        <f>CONCATENATE("&lt;option value='",B75,"'&gt;",C75,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-08-01T00:00:00.000Z'&gt;31/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18197,14 +19164,14 @@
         <v>44402</v>
       </c>
       <c r="B76" t="str">
-        <f>CONCATENATE(TEXT(A76, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-07-25T00:00:00.000Z</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E76" t="str">
-        <f>CONCATENATE("&lt;option value='",B76,"'&gt;",C76,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-07-25T00:00:00.000Z'&gt;30/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18213,14 +19180,14 @@
         <v>44395</v>
       </c>
       <c r="B77" t="str">
-        <f>CONCATENATE(TEXT(A77, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-07-18T00:00:00.000Z</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="str">
-        <f>CONCATENATE("&lt;option value='",B77,"'&gt;",C77,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-07-18T00:00:00.000Z'&gt;29/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18229,14 +19196,14 @@
         <v>44388</v>
       </c>
       <c r="B78" t="str">
-        <f>CONCATENATE(TEXT(A78, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-07-11T00:00:00.000Z</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="str">
-        <f>CONCATENATE("&lt;option value='",B78,"'&gt;",C78,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-07-11T00:00:00.000Z'&gt;28/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18245,14 +19212,14 @@
         <v>44381</v>
       </c>
       <c r="B79" t="str">
-        <f>CONCATENATE(TEXT(A79, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-07-04T00:00:00.000Z</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="str">
-        <f>CONCATENATE("&lt;option value='",B79,"'&gt;",C79,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-07-04T00:00:00.000Z'&gt;27/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18261,14 +19228,14 @@
         <v>44374</v>
       </c>
       <c r="B80" t="str">
-        <f>CONCATENATE(TEXT(A80, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-06-27T00:00:00.000Z</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="str">
-        <f>CONCATENATE("&lt;option value='",B80,"'&gt;",C80,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-06-27T00:00:00.000Z'&gt;26/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18277,14 +19244,14 @@
         <v>44367</v>
       </c>
       <c r="B81" t="str">
-        <f>CONCATENATE(TEXT(A81, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-06-20T00:00:00.000Z</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="str">
-        <f>CONCATENATE("&lt;option value='",B81,"'&gt;",C81,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-06-20T00:00:00.000Z'&gt;25/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18293,14 +19260,14 @@
         <v>44360</v>
       </c>
       <c r="B82" t="str">
-        <f>CONCATENATE(TEXT(A82, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-06-13T00:00:00.000Z</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E82" t="str">
-        <f>CONCATENATE("&lt;option value='",B82,"'&gt;",C82,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-06-13T00:00:00.000Z'&gt;24/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18309,14 +19276,14 @@
         <v>44353</v>
       </c>
       <c r="B83" t="str">
-        <f>CONCATENATE(TEXT(A83, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-06-06T00:00:00.000Z</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E83" t="str">
-        <f>CONCATENATE("&lt;option value='",B83,"'&gt;",C83,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-06-06T00:00:00.000Z'&gt;23/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18325,14 +19292,14 @@
         <v>44346</v>
       </c>
       <c r="B84" t="str">
-        <f>CONCATENATE(TEXT(A84, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-05-30T00:00:00.000Z</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="str">
-        <f>CONCATENATE("&lt;option value='",B84,"'&gt;",C84,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-05-30T00:00:00.000Z'&gt;22/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18341,14 +19308,14 @@
         <v>44339</v>
       </c>
       <c r="B85" t="str">
-        <f>CONCATENATE(TEXT(A85, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-05-23T00:00:00.000Z</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="str">
-        <f>CONCATENATE("&lt;option value='",B85,"'&gt;",C85,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-05-23T00:00:00.000Z'&gt;21/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18357,14 +19324,14 @@
         <v>44332</v>
       </c>
       <c r="B86" t="str">
-        <f>CONCATENATE(TEXT(A86, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-05-16T00:00:00.000Z</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="str">
-        <f>CONCATENATE("&lt;option value='",B86,"'&gt;",C86,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-05-16T00:00:00.000Z'&gt;20/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18373,14 +19340,14 @@
         <v>44325</v>
       </c>
       <c r="B87" t="str">
-        <f>CONCATENATE(TEXT(A87, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-05-09T00:00:00.000Z</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E87" t="str">
-        <f>CONCATENATE("&lt;option value='",B87,"'&gt;",C87,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-05-09T00:00:00.000Z'&gt;19/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18389,14 +19356,14 @@
         <v>44318</v>
       </c>
       <c r="B88" t="str">
-        <f>CONCATENATE(TEXT(A88, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-05-02T00:00:00.000Z</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E88" t="str">
-        <f>CONCATENATE("&lt;option value='",B88,"'&gt;",C88,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-05-02T00:00:00.000Z'&gt;18/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18405,14 +19372,14 @@
         <v>44311</v>
       </c>
       <c r="B89" t="str">
-        <f>CONCATENATE(TEXT(A89, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-04-25T00:00:00.000Z</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E89" t="str">
-        <f>CONCATENATE("&lt;option value='",B89,"'&gt;",C89,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-04-25T00:00:00.000Z'&gt;17/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18421,14 +19388,14 @@
         <v>44304</v>
       </c>
       <c r="B90" t="str">
-        <f>CONCATENATE(TEXT(A90, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-04-18T00:00:00.000Z</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="str">
-        <f>CONCATENATE("&lt;option value='",B90,"'&gt;",C90,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-04-18T00:00:00.000Z'&gt;16/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18437,14 +19404,14 @@
         <v>44297</v>
       </c>
       <c r="B91" t="str">
-        <f>CONCATENATE(TEXT(A91, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-04-11T00:00:00.000Z</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f>CONCATENATE("&lt;option value='",B91,"'&gt;",C91,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-04-11T00:00:00.000Z'&gt;15/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18453,14 +19420,14 @@
         <v>44290</v>
       </c>
       <c r="B92" t="str">
-        <f>CONCATENATE(TEXT(A92, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-04-04T00:00:00.000Z</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f>CONCATENATE("&lt;option value='",B92,"'&gt;",C92,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-04-04T00:00:00.000Z'&gt;14/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18469,14 +19436,14 @@
         <v>44283</v>
       </c>
       <c r="B93" t="str">
-        <f>CONCATENATE(TEXT(A93, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-03-28T00:00:00.000Z</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E93" t="str">
-        <f>CONCATENATE("&lt;option value='",B93,"'&gt;",C93,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-03-28T00:00:00.000Z'&gt;13/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18485,14 +19452,14 @@
         <v>44276</v>
       </c>
       <c r="B94" t="str">
-        <f>CONCATENATE(TEXT(A94, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-03-21T00:00:00.000Z</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E94" t="str">
-        <f>CONCATENATE("&lt;option value='",B94,"'&gt;",C94,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-03-21T00:00:00.000Z'&gt;12/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18501,14 +19468,14 @@
         <v>44269</v>
       </c>
       <c r="B95" t="str">
-        <f>CONCATENATE(TEXT(A95, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-03-14T00:00:00.000Z</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E95" t="str">
-        <f>CONCATENATE("&lt;option value='",B95,"'&gt;",C95,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-03-14T00:00:00.000Z'&gt;11/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18517,14 +19484,14 @@
         <v>44262</v>
       </c>
       <c r="B96" t="str">
-        <f>CONCATENATE(TEXT(A96, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-03-07T00:00:00.000Z</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E96" t="str">
-        <f>CONCATENATE("&lt;option value='",B96,"'&gt;",C96,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-03-07T00:00:00.000Z'&gt;10/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18533,14 +19500,14 @@
         <v>44255</v>
       </c>
       <c r="B97" t="str">
-        <f>CONCATENATE(TEXT(A97, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="4"/>
         <v>2021-02-28T00:00:00.000Z</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E97" t="str">
-        <f>CONCATENATE("&lt;option value='",B97,"'&gt;",C97,"&lt;/option&gt;")</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value='2021-02-28T00:00:00.000Z'&gt;09/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18549,14 +19516,14 @@
         <v>44248</v>
       </c>
       <c r="B98" t="str">
-        <f>CONCATENATE(TEXT(A98, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" ref="B98:B129" si="6">CONCATENATE(TEXT(A98, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
         <v>2021-02-21T00:00:00.000Z</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E98" t="str">
-        <f>CONCATENATE("&lt;option value='",B98,"'&gt;",C98,"&lt;/option&gt;")</f>
+        <f t="shared" ref="E98:E104" si="7">CONCATENATE("&lt;option value='",B98,"'&gt;",C98,"&lt;/option&gt;")</f>
         <v>&lt;option value='2021-02-21T00:00:00.000Z'&gt;08/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18565,14 +19532,14 @@
         <v>44241</v>
       </c>
       <c r="B99" t="str">
-        <f>CONCATENATE(TEXT(A99, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-02-14T00:00:00.000Z</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E99" t="str">
-        <f>CONCATENATE("&lt;option value='",B99,"'&gt;",C99,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-02-14T00:00:00.000Z'&gt;07/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18581,14 +19548,14 @@
         <v>44234</v>
       </c>
       <c r="B100" t="str">
-        <f>CONCATENATE(TEXT(A100, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-02-07T00:00:00.000Z</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E100" t="str">
-        <f>CONCATENATE("&lt;option value='",B100,"'&gt;",C100,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-02-07T00:00:00.000Z'&gt;06/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18597,14 +19564,14 @@
         <v>44227</v>
       </c>
       <c r="B101" t="str">
-        <f>CONCATENATE(TEXT(A101, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-01-31T00:00:00.000Z</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E101" t="str">
-        <f>CONCATENATE("&lt;option value='",B101,"'&gt;",C101,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-01-31T00:00:00.000Z'&gt;05/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18613,14 +19580,14 @@
         <v>44220</v>
       </c>
       <c r="B102" t="str">
-        <f>CONCATENATE(TEXT(A102, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-01-24T00:00:00.000Z</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E102" t="str">
-        <f>CONCATENATE("&lt;option value='",B102,"'&gt;",C102,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-01-24T00:00:00.000Z'&gt;04/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18629,14 +19596,14 @@
         <v>44213</v>
       </c>
       <c r="B103" t="str">
-        <f>CONCATENATE(TEXT(A103, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-01-17T00:00:00.000Z</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E103" t="str">
-        <f>CONCATENATE("&lt;option value='",B103,"'&gt;",C103,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-01-17T00:00:00.000Z'&gt;03/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18645,14 +19612,14 @@
         <v>44206</v>
       </c>
       <c r="B104" t="str">
-        <f>CONCATENATE(TEXT(A104, "AAAA-MM-DD"),"T00:00:00.000Z")</f>
+        <f t="shared" si="6"/>
         <v>2021-01-10T00:00:00.000Z</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E104" t="str">
-        <f>CONCATENATE("&lt;option value='",B104,"'&gt;",C104,"&lt;/option&gt;")</f>
+        <f t="shared" si="7"/>
         <v>&lt;option value='2021-01-10T00:00:00.000Z'&gt;02/2021&lt;/option&gt;</v>
       </c>
     </row>
@@ -18669,6 +19636,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20901E3F-C5F4-4687-8ACC-5C280FA9C01C}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1100205</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1302603</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5508</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1200401</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5510</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5002704</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5512</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1600303</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5514</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5449</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5300108</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5516</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1400100</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5103403</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5520</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1721000</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>5522</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3550308</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>5524</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2211001</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5526</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3304557</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>5528</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1501402</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5530</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5208707</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>5532</v>
+      </c>
+      <c r="E14" s="14">
+        <v>728.84100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2927408</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>5534</v>
+      </c>
+      <c r="E15" s="14">
+        <v>693.45299999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C16" s="11">
+        <v>4205407</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>5535</v>
+      </c>
+      <c r="E16" s="14">
+        <v>674.84400000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2111300</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5536</v>
+      </c>
+      <c r="E17" s="14">
+        <v>582.97400000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2704302</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5537</v>
+      </c>
+      <c r="E18" s="14">
+        <v>509.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4314902</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>5538</v>
+      </c>
+      <c r="E19" s="14">
+        <v>495.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4106902</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>5539</v>
+      </c>
+      <c r="E20" s="14">
+        <v>434.892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3106200</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E21" s="14">
+        <v>331.35399999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2304400</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>5541</v>
+      </c>
+      <c r="E22" s="14">
+        <v>312.35300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2611606</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>5542</v>
+      </c>
+      <c r="E23" s="14">
+        <v>218.84299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>24</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2507507</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5543</v>
+      </c>
+      <c r="E24" s="14">
+        <v>210.04400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2800308</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>5544</v>
+      </c>
+      <c r="E25" s="14">
+        <v>182.16300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2408102</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E26" s="14">
+        <v>167.40100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>27</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3205309</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>5546</v>
+      </c>
+      <c r="E27" s="14">
+        <v>97.123000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" tooltip="Porto Velho" display="https://pt.wikipedia.org/wiki/Porto_Velho" xr:uid="{74AFC9D0-8C17-4A7C-AEC2-6A68DC58EB60}"/>
+    <hyperlink ref="D1" r:id="rId2" tooltip="Rondônia" display="https://pt.wikipedia.org/wiki/Rond%C3%B4nia" xr:uid="{A6F36EAB-1C09-4E0E-93DD-F61FD2134D16}"/>
+    <hyperlink ref="B2" r:id="rId3" tooltip="Manaus" display="https://pt.wikipedia.org/wiki/Manaus" xr:uid="{3FE03707-5BBB-4DE1-83D4-0C1A7AD111C7}"/>
+    <hyperlink ref="D2" r:id="rId4" tooltip="Amazonas" display="https://pt.wikipedia.org/wiki/Amazonas" xr:uid="{46A2E6BB-234F-4C0F-ADE6-86CEB1ED2AC4}"/>
+    <hyperlink ref="B3" r:id="rId5" tooltip="Rio Branco" display="https://pt.wikipedia.org/wiki/Rio_Branco" xr:uid="{FB82E421-DBBD-4049-B834-A8393B234948}"/>
+    <hyperlink ref="D3" r:id="rId6" tooltip="Acre" display="https://pt.wikipedia.org/wiki/Acre" xr:uid="{F35B0BDB-801D-442F-9AD9-9EE3A8FE095C}"/>
+    <hyperlink ref="B4" r:id="rId7" tooltip="Campo Grande (Mato Grosso do Sul)" display="https://pt.wikipedia.org/wiki/Campo_Grande_(Mato_Grosso_do_Sul)" xr:uid="{CA2E8941-1503-4BB6-84C7-3A7D45278250}"/>
+    <hyperlink ref="D4" r:id="rId8" tooltip="Mato Grosso do Sul" display="https://pt.wikipedia.org/wiki/Mato_Grosso_do_Sul" xr:uid="{9E4755BD-1821-4E02-AF32-152583B68AD6}"/>
+    <hyperlink ref="B5" r:id="rId9" tooltip="Macapá" display="https://pt.wikipedia.org/wiki/Macap%C3%A1" xr:uid="{02AE3F33-B0AA-403A-ACFD-9C68050A429E}"/>
+    <hyperlink ref="D5" r:id="rId10" tooltip="Amapá" display="https://pt.wikipedia.org/wiki/Amap%C3%A1" xr:uid="{E3FCF5A4-71A0-493E-8686-919EB7399FD8}"/>
+    <hyperlink ref="B6" r:id="rId11" tooltip="Brasília" display="https://pt.wikipedia.org/wiki/Bras%C3%ADlia" xr:uid="{445CCA93-7D53-4F3F-BB25-B5A244AB737E}"/>
+    <hyperlink ref="D6" r:id="rId12" tooltip="Distrito Federal (Brasil)" display="https://pt.wikipedia.org/wiki/Distrito_Federal_(Brasil)" xr:uid="{F1B8E670-545E-4AC8-B541-A2E70F542905}"/>
+    <hyperlink ref="B7" r:id="rId13" tooltip="Boa Vista (Roraima)" display="https://pt.wikipedia.org/wiki/Boa_Vista_(Roraima)" xr:uid="{C73F76F9-15A6-4E88-838F-E191586E34AB}"/>
+    <hyperlink ref="D7" r:id="rId14" tooltip="Roraima" display="https://pt.wikipedia.org/wiki/Roraima" xr:uid="{950C515E-44C3-4EC9-94D4-F3FA63B396DF}"/>
+    <hyperlink ref="B8" r:id="rId15" tooltip="Cuiabá" display="https://pt.wikipedia.org/wiki/Cuiab%C3%A1" xr:uid="{A2013EA1-1F9D-45D0-BD2B-BF1FFBE69F10}"/>
+    <hyperlink ref="D8" r:id="rId16" tooltip="Mato Grosso" display="https://pt.wikipedia.org/wiki/Mato_Grosso" xr:uid="{D7DF0936-8CF1-46D1-A96B-338302BF65CE}"/>
+    <hyperlink ref="B9" r:id="rId17" tooltip="Palmas" display="https://pt.wikipedia.org/wiki/Palmas" xr:uid="{E843ED17-87D9-42EB-9254-CAE9FCD01AAB}"/>
+    <hyperlink ref="D9" r:id="rId18" tooltip="Tocantins" display="https://pt.wikipedia.org/wiki/Tocantins" xr:uid="{A2284A31-32AA-4590-90CB-6000099057C9}"/>
+    <hyperlink ref="B10" r:id="rId19" tooltip="São Paulo (cidade)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Paulo_(cidade)" xr:uid="{C3157390-A17B-4C90-B03D-05954663996D}"/>
+    <hyperlink ref="D10" r:id="rId20" tooltip="São Paulo (estado)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Paulo_(estado)" xr:uid="{9489E230-C224-4F59-9210-7CB20C1EB5EC}"/>
+    <hyperlink ref="B11" r:id="rId21" tooltip="Teresina" display="https://pt.wikipedia.org/wiki/Teresina" xr:uid="{5549CB0D-4120-407F-9856-6CF0E9B0924D}"/>
+    <hyperlink ref="D11" r:id="rId22" tooltip="Piauí" display="https://pt.wikipedia.org/wiki/Piau%C3%AD" xr:uid="{471B7E5A-BEE7-443E-A4DA-8B489601EE92}"/>
+    <hyperlink ref="B12" r:id="rId23" tooltip="Rio de Janeiro" display="https://pt.wikipedia.org/wiki/Rio_de_Janeiro" xr:uid="{B25D8216-AEF8-49E4-B3FC-D8E1C2A6AF6E}"/>
+    <hyperlink ref="D12" r:id="rId24" tooltip="Rio de Janeiro (estado)" display="https://pt.wikipedia.org/wiki/Rio_de_Janeiro_(estado)" xr:uid="{A73E9A31-198D-4E44-85BD-8AEA9BE421C4}"/>
+    <hyperlink ref="B13" r:id="rId25" tooltip="Belém (Pará)" display="https://pt.wikipedia.org/wiki/Bel%C3%A9m_(Par%C3%A1)" xr:uid="{B6520AB9-F628-4E04-8911-89FF4CD13FAA}"/>
+    <hyperlink ref="B14" r:id="rId26" tooltip="Goiânia" display="https://pt.wikipedia.org/wiki/Goi%C3%A2nia" xr:uid="{B55B5F0A-2F76-436C-B5F6-C46371E69B08}"/>
+    <hyperlink ref="D14" r:id="rId27" tooltip="Goiás" display="https://pt.wikipedia.org/wiki/Goi%C3%A1s" xr:uid="{A70A6323-0B08-45B2-9F3D-007732A33982}"/>
+    <hyperlink ref="B16" r:id="rId28" tooltip="Florianópolis" display="https://pt.wikipedia.org/wiki/Florian%C3%B3polis" xr:uid="{79EDA508-843C-40A7-9FD1-7DA376A366FA}"/>
+    <hyperlink ref="D16" r:id="rId29" tooltip="Santa Catarina" display="https://pt.wikipedia.org/wiki/Santa_Catarina" xr:uid="{752F13AF-BAE2-4614-9C42-48009B3161C1}"/>
+    <hyperlink ref="B17" r:id="rId30" tooltip="São Luís (Maranhão)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Lu%C3%ADs_(Maranh%C3%A3o)" xr:uid="{95690609-57A1-4E17-A5E6-48CF13011D42}"/>
+    <hyperlink ref="D17" r:id="rId31" tooltip="Maranhão" display="https://pt.wikipedia.org/wiki/Maranh%C3%A3o" xr:uid="{0FA240D6-93DC-4D31-AC1A-669BBAF20361}"/>
+    <hyperlink ref="B18" r:id="rId32" tooltip="Maceió" display="https://pt.wikipedia.org/wiki/Macei%C3%B3" xr:uid="{BB16628A-8231-466A-8774-07B7284A19E3}"/>
+    <hyperlink ref="D18" r:id="rId33" tooltip="Alagoas" display="https://pt.wikipedia.org/wiki/Alagoas" xr:uid="{FDFF0647-DF38-433F-8C9F-1D5794CB490E}"/>
+    <hyperlink ref="B19" r:id="rId34" tooltip="Porto Alegre" display="https://pt.wikipedia.org/wiki/Porto_Alegre" xr:uid="{AA613F69-9178-4887-AA74-C011EC5C974B}"/>
+    <hyperlink ref="D19" r:id="rId35" tooltip="Rio Grande do Sul" display="https://pt.wikipedia.org/wiki/Rio_Grande_do_Sul" xr:uid="{858D8BB2-5F4C-412E-8794-EA6533C0734D}"/>
+    <hyperlink ref="B20" r:id="rId36" tooltip="Curitiba" display="https://pt.wikipedia.org/wiki/Curitiba" xr:uid="{2DED64F0-7CD4-4FBE-9C40-B5BFA0A7710B}"/>
+    <hyperlink ref="D20" r:id="rId37" tooltip="Paraná" display="https://pt.wikipedia.org/wiki/Paran%C3%A1" xr:uid="{9D09E672-9B3A-48DF-9CC8-428B5873267E}"/>
+    <hyperlink ref="B21" r:id="rId38" tooltip="Belo Horizonte" display="https://pt.wikipedia.org/wiki/Belo_Horizonte" xr:uid="{564AB9A4-9E5D-461E-88F8-14F9A5EBDD2A}"/>
+    <hyperlink ref="D21" r:id="rId39" tooltip="Minas Gerais" display="https://pt.wikipedia.org/wiki/Minas_Gerais" xr:uid="{6D9A3F05-08A4-4867-9072-3A7DE9ABCEFC}"/>
+    <hyperlink ref="B22" r:id="rId40" tooltip="Fortaleza" display="https://pt.wikipedia.org/wiki/Fortaleza" xr:uid="{4FE39275-ECBE-4905-8762-244276387B55}"/>
+    <hyperlink ref="D22" r:id="rId41" tooltip="Ceará" display="https://pt.wikipedia.org/wiki/Cear%C3%A1" xr:uid="{E72487E2-7BE5-4E0C-ABF2-84F54E00FA9F}"/>
+    <hyperlink ref="B23" r:id="rId42" tooltip="Recife" display="https://pt.wikipedia.org/wiki/Recife" xr:uid="{07BD9E7E-D7EE-4500-8129-F427E58385C1}"/>
+    <hyperlink ref="D23" r:id="rId43" tooltip="Pernambuco" display="https://pt.wikipedia.org/wiki/Pernambuco" xr:uid="{022307E4-5632-4EBA-9595-62D55641C934}"/>
+    <hyperlink ref="B24" r:id="rId44" tooltip="João Pessoa" display="https://pt.wikipedia.org/wiki/Jo%C3%A3o_Pessoa" xr:uid="{897E5669-CAFC-4ACF-A03E-1380E93FC388}"/>
+    <hyperlink ref="D24" r:id="rId45" tooltip="Paraíba" display="https://pt.wikipedia.org/wiki/Para%C3%ADba" xr:uid="{ED3A313F-76F0-499B-8E73-857B8D613ECB}"/>
+    <hyperlink ref="B25" r:id="rId46" tooltip="Aracaju" display="https://pt.wikipedia.org/wiki/Aracaju" xr:uid="{B9A348E1-FB29-48F2-A5DC-BDE7A714DEC6}"/>
+    <hyperlink ref="D25" r:id="rId47" tooltip="Sergipe" display="https://pt.wikipedia.org/wiki/Sergipe" xr:uid="{E8D9A17B-6A4C-4BF9-B127-882C8D6F6EE9}"/>
+    <hyperlink ref="B26" r:id="rId48" tooltip="Natal (Rio Grande do Norte)" display="https://pt.wikipedia.org/wiki/Natal_(Rio_Grande_do_Norte)" xr:uid="{BE0314A2-4B76-4553-91E0-05162A56E2BE}"/>
+    <hyperlink ref="D26" r:id="rId49" tooltip="Rio Grande do Norte" display="https://pt.wikipedia.org/wiki/Rio_Grande_do_Norte" xr:uid="{F1989807-5E58-4761-BAB4-548D4904CA34}"/>
+    <hyperlink ref="B27" r:id="rId50" tooltip="Vitória (Espírito Santo)" display="https://pt.wikipedia.org/wiki/Vit%C3%B3ria_(Esp%C3%ADrito_Santo)" xr:uid="{B104C88D-461B-4643-BA27-3160E51645A4}"/>
+    <hyperlink ref="D27" r:id="rId51" tooltip="Espírito Santo (estado)" display="https://pt.wikipedia.org/wiki/Esp%C3%ADrito_Santo_(estado)" xr:uid="{CE02F144-D625-4A86-80EB-DEDA5511D95C}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId52"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F858708-2F9E-4E2B-93AF-C311A6B5271B}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -18932,7 +20431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B49A5A1-2922-4E3B-9290-49C69839B242}">
   <dimension ref="A1:C5571"/>
   <sheetViews>
@@ -80234,7 +81733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D60D922-4C09-44AF-9A6B-383A8DAE0C8E}">
   <dimension ref="A1:BS50"/>
   <sheetViews>
